--- a/MultyParser.Win/Templates/Opencart/Products.xlsx
+++ b/MultyParser.Win/Templates/Opencart/Products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\11 - Обработчик Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\11 - Обработчик Excel\MultyParser\MultyParser.Win\Templates\Opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E4EA86-3A01-4297-BE24-21D47ACAC5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B91F974-E3E9-4CD6-975B-6D30160DDDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="2100" windowWidth="22125" windowHeight="6675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="ProductOptions" sheetId="6" r:id="rId3"/>
     <sheet name="ProductOptionValues" sheetId="7" r:id="rId4"/>
     <sheet name="ProductAttributes" sheetId="8" r:id="rId5"/>
-    <sheet name="ProductSEOKeywords" sheetId="10" r:id="rId6"/>
+    <sheet name="ProductFilters" sheetId="11" r:id="rId6"/>
+    <sheet name="ProductSEOKeywords" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>product_id</t>
   </si>
@@ -208,6 +209,12 @@
   </si>
   <si>
     <t>keyword(ru-ru)</t>
+  </si>
+  <si>
+    <t>filter_group</t>
+  </si>
+  <si>
+    <t>filter</t>
   </si>
 </sst>
 </file>
@@ -927,6 +934,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6A1890-BBAF-460E-BA28-32E5F929C94A}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="5" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
